--- a/output/meral/sheets/meral_long_term_monthly_average_noise_levels.xlsx
+++ b/output/meral/sheets/meral_long_term_monthly_average_noise_levels.xlsx
@@ -145,7 +145,7 @@
       <row>1</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="6096000" cy="4572000"/>
+    <ext cx="15392400" cy="5943600"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -487,10 +487,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>36.51290322580645</v>
+        <v>47.61015714016544</v>
       </c>
       <c r="C2" t="n">
-        <v>21.98387096774194</v>
+        <v>44.57246670390131</v>
       </c>
     </row>
     <row r="3">
@@ -500,10 +500,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>43.91428571428571</v>
+        <v>47.64259973760911</v>
       </c>
       <c r="C3" t="n">
-        <v>27.63571428571428</v>
+        <v>38.72192438293692</v>
       </c>
     </row>
     <row r="4">
@@ -513,10 +513,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>43.30967741935483</v>
+        <v>48.69089372629682</v>
       </c>
       <c r="C4" t="n">
-        <v>27.91612903225806</v>
+        <v>45.37402457628551</v>
       </c>
     </row>
     <row r="5">
@@ -526,10 +526,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>48.73333333333333</v>
+        <v>59.88338485058576</v>
       </c>
       <c r="C5" t="n">
-        <v>41.30666666666666</v>
+        <v>52.97843646991915</v>
       </c>
     </row>
     <row r="6">
@@ -539,10 +539,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>38.7</v>
+        <v>46.1739658617546</v>
       </c>
       <c r="C6" t="n">
-        <v>27.65483870967742</v>
+        <v>38.89122694969038</v>
       </c>
     </row>
     <row r="7">
@@ -552,10 +552,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>45.05333333333333</v>
+        <v>48.9542008654939</v>
       </c>
       <c r="C7" t="n">
-        <v>37.67333333333333</v>
+        <v>42.75670716916017</v>
       </c>
     </row>
     <row r="8">
@@ -565,10 +565,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>49.22258064516129</v>
+        <v>50.58320125052164</v>
       </c>
       <c r="C8" t="n">
-        <v>29.58064516129032</v>
+        <v>42.52977506111026</v>
       </c>
     </row>
     <row r="9">
@@ -578,10 +578,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>43.95806451612903</v>
+        <v>50.08806154516201</v>
       </c>
       <c r="C9" t="n">
-        <v>20.91935483870968</v>
+        <v>42.45211093447973</v>
       </c>
     </row>
     <row r="10">
@@ -591,10 +591,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>44.54666666666667</v>
+        <v>51.82912789767482</v>
       </c>
       <c r="C10" t="n">
-        <v>34.45333333333333</v>
+        <v>43.97405302839783</v>
       </c>
     </row>
     <row r="11">
@@ -604,10 +604,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>44.65483870967742</v>
+        <v>51.01487155381631</v>
       </c>
       <c r="C11" t="n">
-        <v>36.50322580645161</v>
+        <v>44.77281932001712</v>
       </c>
     </row>
     <row r="12">
@@ -617,10 +617,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>41.71333333333334</v>
+        <v>52.80321386564275</v>
       </c>
       <c r="C12" t="n">
-        <v>32.87666666666667</v>
+        <v>49.6186537657647</v>
       </c>
     </row>
     <row r="13">
@@ -630,10 +630,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>42.35161290322581</v>
+        <v>47.73931353103094</v>
       </c>
       <c r="C13" t="n">
-        <v>36.48709677419355</v>
+        <v>40.79427629569049</v>
       </c>
     </row>
     <row r="14">
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>41.21612903225807</v>
+        <v>47.83872076465769</v>
       </c>
       <c r="C14" t="n">
-        <v>28.34516129032258</v>
+        <v>42.69322825018963</v>
       </c>
     </row>
     <row r="15">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>45.6</v>
+        <v>49.03823240648252</v>
       </c>
       <c r="C15" t="n">
-        <v>31.53214285714285</v>
+        <v>42.84945360575739</v>
       </c>
     </row>
     <row r="16">
@@ -669,10 +669,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>56.28064516129032</v>
+        <v>60.12658647668029</v>
       </c>
       <c r="C16" t="n">
-        <v>46.2258064516129</v>
+        <v>52.98463162630561</v>
       </c>
     </row>
     <row r="17">
@@ -682,10 +682,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>61.68333333333333</v>
+        <v>61.88884450674622</v>
       </c>
       <c r="C17" t="n">
-        <v>54.61666666666667</v>
+        <v>55.00360552553783</v>
       </c>
     </row>
     <row r="18">
@@ -695,10 +695,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>62.62903225806452</v>
+        <v>62.75759902167144</v>
       </c>
       <c r="C18" t="n">
-        <v>53.06129032258065</v>
+        <v>55.5630243307995</v>
       </c>
     </row>
     <row r="19">
@@ -708,10 +708,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>61.98666666666666</v>
+        <v>62.29258445879716</v>
       </c>
       <c r="C19" t="n">
-        <v>53.44666666666667</v>
+        <v>55.45102771712202</v>
       </c>
     </row>
     <row r="20">
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>56.96451612903226</v>
+        <v>57.15279153619778</v>
       </c>
       <c r="C20" t="n">
-        <v>51.41290322580645</v>
+        <v>52.4131354006521</v>
       </c>
     </row>
     <row r="21">
@@ -734,10 +734,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>54.56451612903226</v>
+        <v>56.24021685390954</v>
       </c>
       <c r="C21" t="n">
-        <v>41.90322580645162</v>
+        <v>50.98871683164556</v>
       </c>
     </row>
     <row r="22">
@@ -747,10 +747,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>55.14666666666667</v>
+        <v>56.23015402662882</v>
       </c>
       <c r="C22" t="n">
-        <v>45.35666666666667</v>
+        <v>50.96154575913891</v>
       </c>
     </row>
     <row r="23">
@@ -760,10 +760,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>59.2258064516129</v>
+        <v>60.70953074104515</v>
       </c>
       <c r="C23" t="n">
-        <v>51.57419354838709</v>
+        <v>53.01686096598669</v>
       </c>
     </row>
     <row r="24">
@@ -773,10 +773,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>43.33666666666667</v>
+        <v>50.24560781517529</v>
       </c>
       <c r="C24" t="n">
-        <v>33.53</v>
+        <v>43.89430489714194</v>
       </c>
     </row>
     <row r="25">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>39.90645161290323</v>
+        <v>52.53013165733846</v>
       </c>
       <c r="C25" t="n">
-        <v>31.34838709677419</v>
+        <v>45.53224768819003</v>
       </c>
     </row>
     <row r="26">
@@ -799,10 +799,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>40.22903225806451</v>
+        <v>53.66952107797745</v>
       </c>
       <c r="C26" t="n">
-        <v>33.47741935483871</v>
+        <v>46.54679822548992</v>
       </c>
     </row>
     <row r="27">
@@ -812,10 +812,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>46.50344827586206</v>
+        <v>51.97612899042849</v>
       </c>
       <c r="C27" t="n">
-        <v>35.08275862068965</v>
+        <v>44.89947127377086</v>
       </c>
     </row>
     <row r="28">
@@ -825,10 +825,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>43.03548387096774</v>
+        <v>49.44844332706702</v>
       </c>
       <c r="C28" t="n">
-        <v>27.41612903225806</v>
+        <v>43.50420830363546</v>
       </c>
     </row>
     <row r="29">
@@ -838,10 +838,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>42.98</v>
+        <v>46.68029535329601</v>
       </c>
       <c r="C29" t="n">
-        <v>21.74</v>
+        <v>41.30338354769095</v>
       </c>
     </row>
     <row r="30">
@@ -851,10 +851,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>48.43870967741935</v>
+        <v>49.0030487719872</v>
       </c>
       <c r="C30" t="n">
-        <v>20.2516129032258</v>
+        <v>42.73908494603803</v>
       </c>
     </row>
     <row r="31">
@@ -864,10 +864,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>51.30666666666666</v>
+        <v>51.61932593859091</v>
       </c>
       <c r="C31" t="n">
-        <v>30.17</v>
+        <v>43.70769410304716</v>
       </c>
     </row>
     <row r="32">
@@ -877,10 +877,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>40.41612903225807</v>
+        <v>45.95764289841419</v>
       </c>
       <c r="C32" t="n">
-        <v>15.79032258064516</v>
+        <v>38.78993513855539</v>
       </c>
     </row>
     <row r="33">
@@ -890,10 +890,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>39.2516129032258</v>
+        <v>46.4154290277868</v>
       </c>
       <c r="C33" t="n">
-        <v>17.28709677419355</v>
+        <v>42.22464767961392</v>
       </c>
     </row>
     <row r="34">
@@ -903,10 +903,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>29.82333333333333</v>
+        <v>47.07769606521743</v>
       </c>
       <c r="C34" t="n">
-        <v>12.15</v>
+        <v>43.05543217263426</v>
       </c>
     </row>
     <row r="35">
@@ -916,10 +916,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>37.06774193548387</v>
+        <v>46.03355679657211</v>
       </c>
       <c r="C35" t="n">
-        <v>20.03870967741936</v>
+        <v>43.46827543266392</v>
       </c>
     </row>
     <row r="36">
@@ -929,10 +929,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>34.21666666666667</v>
+        <v>47.55167666752008</v>
       </c>
       <c r="C36" t="n">
-        <v>16.60333333333334</v>
+        <v>41.46946083504125</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>23.20967741935484</v>
+        <v>44.4955983046965</v>
       </c>
       <c r="C37" t="n">
-        <v>16.10322580645161</v>
+        <v>41.473661104676</v>
       </c>
     </row>
     <row r="38">
@@ -955,10 +955,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>32.70645161290322</v>
+        <v>46.60424162604509</v>
       </c>
       <c r="C38" t="n">
-        <v>12.7258064516129</v>
+        <v>42.37091494233492</v>
       </c>
     </row>
     <row r="39">
@@ -968,10 +968,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>35.09285714285714</v>
+        <v>47.02952439314689</v>
       </c>
       <c r="C39" t="n">
-        <v>11.75714285714286</v>
+        <v>41.35254707896677</v>
       </c>
     </row>
     <row r="40">
@@ -981,10 +981,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>39.71290322580646</v>
+        <v>45.67243850619406</v>
       </c>
       <c r="C40" t="n">
-        <v>23.89032258064516</v>
+        <v>40.10918533331505</v>
       </c>
     </row>
     <row r="41">
@@ -994,10 +994,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>43.74</v>
+        <v>50.28818310102231</v>
       </c>
       <c r="C41" t="n">
-        <v>23.31333333333333</v>
+        <v>45.12968481771392</v>
       </c>
     </row>
     <row r="42">
@@ -1007,10 +1007,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>36.47096774193548</v>
+        <v>50.34671263645252</v>
       </c>
       <c r="C42" t="n">
-        <v>18.55483870967742</v>
+        <v>44.34275555638841</v>
       </c>
     </row>
     <row r="43">
@@ -1020,10 +1020,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>45.35</v>
+        <v>48.84681940247562</v>
       </c>
       <c r="C43" t="n">
-        <v>24.67333333333334</v>
+        <v>43.11242515712352</v>
       </c>
     </row>
     <row r="44">
@@ -1033,10 +1033,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>43.45806451612903</v>
+        <v>47.59642577665482</v>
       </c>
       <c r="C44" t="n">
-        <v>16.68064516129032</v>
+        <v>42.91992443444617</v>
       </c>
     </row>
     <row r="45">
@@ -1046,10 +1046,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>46.79677419354839</v>
+        <v>49.10534788176668</v>
       </c>
       <c r="C45" t="n">
-        <v>25.04193548387097</v>
+        <v>42.60511314571039</v>
       </c>
     </row>
     <row r="46">
@@ -1059,10 +1059,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>40.49666666666667</v>
+        <v>48.27415592955078</v>
       </c>
       <c r="C46" t="n">
-        <v>27.44666666666667</v>
+        <v>43.43353762006453</v>
       </c>
     </row>
     <row r="47">
@@ -1072,10 +1072,10 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>32.72903225806451</v>
+        <v>50.83662287731281</v>
       </c>
       <c r="C47" t="n">
-        <v>22.61612903225807</v>
+        <v>46.72336131537624</v>
       </c>
     </row>
     <row r="48">
@@ -1085,10 +1085,10 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>41.17333333333333</v>
+        <v>48.49494702450806</v>
       </c>
       <c r="C48" t="n">
-        <v>25.39666666666666</v>
+        <v>44.19760396858513</v>
       </c>
     </row>
     <row r="49">
@@ -1098,10 +1098,10 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>38.46774193548387</v>
+        <v>47.63314635516471</v>
       </c>
       <c r="C49" t="n">
-        <v>24.86129032258065</v>
+        <v>42.91236904425089</v>
       </c>
     </row>
     <row r="50">
@@ -1111,10 +1111,10 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>43.68709677419355</v>
+        <v>48.43345270518114</v>
       </c>
       <c r="C50" t="n">
-        <v>21.16774193548387</v>
+        <v>44.79922639090639</v>
       </c>
     </row>
     <row r="51">
@@ -1124,10 +1124,10 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>44.64285714285715</v>
+        <v>48.92026792280876</v>
       </c>
       <c r="C51" t="n">
-        <v>18.29285714285714</v>
+        <v>42.75491847913923</v>
       </c>
     </row>
     <row r="52">
@@ -1137,10 +1137,10 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>37.56774193548387</v>
+        <v>50.93426266531079</v>
       </c>
       <c r="C52" t="n">
-        <v>19.05161290322581</v>
+        <v>47.24997361426187</v>
       </c>
     </row>
     <row r="53">
@@ -1150,10 +1150,10 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>30.77666666666666</v>
+        <v>46.13798647561221</v>
       </c>
       <c r="C53" t="n">
-        <v>19.28</v>
+        <v>40.99025725205373</v>
       </c>
     </row>
     <row r="54">
@@ -1163,10 +1163,10 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>44.12258064516129</v>
+        <v>47.74558693348869</v>
       </c>
       <c r="C54" t="n">
-        <v>25.6258064516129</v>
+        <v>42.13770138627495</v>
       </c>
     </row>
     <row r="55">
@@ -1176,10 +1176,10 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>38.89666666666667</v>
+        <v>47.89722566608976</v>
       </c>
       <c r="C55" t="n">
-        <v>26.97</v>
+        <v>44.4531202720283</v>
       </c>
     </row>
     <row r="56">
@@ -1189,10 +1189,10 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>43.93870967741935</v>
+        <v>49.05709837421058</v>
       </c>
       <c r="C56" t="n">
-        <v>30.59354838709677</v>
+        <v>42.89384936927462</v>
       </c>
     </row>
     <row r="57">
@@ -1202,10 +1202,10 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>28.24516129032258</v>
+        <v>48.04990550109987</v>
       </c>
       <c r="C57" t="n">
-        <v>10.79032258064516</v>
+        <v>42.60057413213719</v>
       </c>
     </row>
     <row r="58">
@@ -1215,10 +1215,10 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>35.03</v>
+        <v>48.72447518592609</v>
       </c>
       <c r="C58" t="n">
-        <v>22.41</v>
+        <v>45.70694279449509</v>
       </c>
     </row>
     <row r="59">
@@ -1228,10 +1228,10 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>52.04193548387097</v>
+        <v>59.30149166775868</v>
       </c>
       <c r="C59" t="n">
-        <v>33.01935483870968</v>
+        <v>51.9278903891493</v>
       </c>
     </row>
     <row r="60">
@@ -1241,10 +1241,10 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>35.37</v>
+        <v>48.74287721552336</v>
       </c>
       <c r="C60" t="n">
-        <v>14.77333333333333</v>
+        <v>38.36490297551868</v>
       </c>
     </row>
     <row r="61">
@@ -1254,10 +1254,10 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>40.79677419354839</v>
+        <v>51.50401413830557</v>
       </c>
       <c r="C61" t="n">
-        <v>28.14193548387097</v>
+        <v>47.40738545737547</v>
       </c>
     </row>
     <row r="62">
@@ -1267,10 +1267,10 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>39.98387096774194</v>
+        <v>48.72590822424581</v>
       </c>
       <c r="C62" t="n">
-        <v>28.47096774193549</v>
+        <v>40.4294855989381</v>
       </c>
     </row>
     <row r="63">
@@ -1280,10 +1280,10 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>43.85714285714285</v>
+        <v>49.41803871504946</v>
       </c>
       <c r="C63" t="n">
-        <v>27.67857142857143</v>
+        <v>42.797090151777</v>
       </c>
     </row>
     <row r="64">
@@ -1293,10 +1293,10 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>41.29032258064516</v>
+        <v>50.07011533702853</v>
       </c>
       <c r="C64" t="n">
-        <v>30.16129032258064</v>
+        <v>41.89235693631144</v>
       </c>
     </row>
     <row r="65">
@@ -1306,10 +1306,10 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>40.21666666666667</v>
+        <v>46.35819872519319</v>
       </c>
       <c r="C65" t="n">
-        <v>28.74666666666667</v>
+        <v>42.67420971604264</v>
       </c>
     </row>
     <row r="66">
@@ -1319,10 +1319,10 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>26.31935483870968</v>
+        <v>46.19301156821617</v>
       </c>
       <c r="C66" t="n">
-        <v>22.91935483870968</v>
+        <v>41.60030926048456</v>
       </c>
     </row>
     <row r="67">
@@ -1332,10 +1332,10 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>33.55666666666666</v>
+        <v>52.00777456171298</v>
       </c>
       <c r="C67" t="n">
-        <v>26.05666666666667</v>
+        <v>44.66004497707807</v>
       </c>
     </row>
     <row r="68">
@@ -1345,10 +1345,10 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>46.88064516129032</v>
+        <v>48.70698753847026</v>
       </c>
       <c r="C68" t="n">
-        <v>35.62580645161291</v>
+        <v>43.4098818238231</v>
       </c>
     </row>
     <row r="69">
@@ -1358,10 +1358,10 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>41.55806451612903</v>
+        <v>48.56317883392493</v>
       </c>
       <c r="C69" t="n">
-        <v>19.58064516129032</v>
+        <v>40.61665342367168</v>
       </c>
     </row>
     <row r="70">
@@ -1371,10 +1371,10 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>41.64333333333333</v>
+        <v>55.94127144233751</v>
       </c>
       <c r="C70" t="n">
-        <v>35.34666666666667</v>
+        <v>50.14806377269365</v>
       </c>
     </row>
     <row r="71">
@@ -1384,10 +1384,10 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>45.07741935483871</v>
+        <v>49.90234855348262</v>
       </c>
       <c r="C71" t="n">
-        <v>40.15806451612904</v>
+        <v>45.14771961861435</v>
       </c>
     </row>
     <row r="72">
@@ -1397,10 +1397,10 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>42.13666666666666</v>
+        <v>48.60889129485714</v>
       </c>
       <c r="C72" t="n">
-        <v>31.72666666666667</v>
+        <v>43.55706531065444</v>
       </c>
     </row>
     <row r="73">
@@ -1410,10 +1410,10 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>45.55483870967742</v>
+        <v>48.6059402301558</v>
       </c>
       <c r="C73" t="n">
-        <v>36.96451612903226</v>
+        <v>44.85006789796005</v>
       </c>
     </row>
     <row r="74">
@@ -1423,10 +1423,10 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>44.73548387096774</v>
+        <v>49.24159249427355</v>
       </c>
       <c r="C74" t="n">
-        <v>31.29032258064516</v>
+        <v>44.04876818525931</v>
       </c>
     </row>
     <row r="75">
@@ -1436,10 +1436,10 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>41.6551724137931</v>
+        <v>47.89241983594215</v>
       </c>
       <c r="C75" t="n">
-        <v>28.20689655172414</v>
+        <v>42.04194889617648</v>
       </c>
     </row>
     <row r="76">
@@ -1449,10 +1449,10 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>20.10322580645161</v>
+        <v>44.98569259978208</v>
       </c>
       <c r="C76" t="n">
-        <v>13.44193548387097</v>
+        <v>42.06973403572292</v>
       </c>
     </row>
     <row r="77">
@@ -1462,10 +1462,10 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>32.83</v>
+        <v>47.42658349171053</v>
       </c>
       <c r="C77" t="n">
-        <v>21.10333333333334</v>
+        <v>42.89799956838852</v>
       </c>
     </row>
   </sheetData>
